--- a/Auto-IT/Bulk_Employee-Stable.xlsx
+++ b/Auto-IT/Bulk_Employee-Stable.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CF705E2F-1ADA-434F-97CD-E54473777991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{93B2B08D-8CA2-4735-9B7B-6049CE284E53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14080" windowHeight="2210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="5730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H17"/>
+  <oleSize ref="A1:G17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="206">
   <si>
     <t>FirstName</t>
   </si>
@@ -1292,10 +1292,13 @@
     <t>2024-12-25</t>
   </si>
   <si>
-    <t>yum</t>
-  </si>
-  <si>
-    <t>yumyum@gmail.com</t>
+    <t>dum</t>
+  </si>
+  <si>
+    <t>dummad</t>
+  </si>
+  <si>
+    <t>dummad01@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1657,7 @@
   <dimension ref="A1:BN2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1914,7 +1917,7 @@
     </row>
     <row r="2" spans="1:66" ht="15.75" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>203</v>
@@ -1926,7 +1929,7 @@
         <v>9705716176</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>91</v>
